--- a/Music_list & customer_info.xlsx
+++ b/Music_list & customer_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Itsacruellife/Desktop/github_projects/elevate_hackathon_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7EA3B0-897E-544E-9E3A-62881E32D20D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597914F1-2212-7F49-B56F-632870BC738C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5A4EECD1-3681-CB4B-AD00-610E83A3B7BA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>TYPE</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>male_fearful</t>
+  </si>
+  <si>
+    <t>female_sad</t>
   </si>
 </sst>
 </file>
@@ -175,12 +178,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -190,11 +190,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,203 +510,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B118481-6AE2-E147-B5A8-26B24F7E5330}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="141" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="28.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>UPPER("SONG")</f>
         <v>SONG</v>
       </c>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:2" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:2" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:2" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+    <row r="21" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
